--- a/2003.xlsx
+++ b/2003.xlsx
@@ -17,6 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'QL2003'!$A$1:$J$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'QL7003'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -117,6 +118,9 @@
   </si>
   <si>
     <t>6.50 - 7.50</t>
+  </si>
+  <si>
+    <t>KYOSHI</t>
   </si>
 </sst>
 </file>
@@ -407,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -415,28 +419,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,22 +455,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,6 +477,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,324 +810,324 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>11.5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="24"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7">
+      <c r="B5" s="24"/>
+      <c r="C5" s="4">
         <v>9.1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7">
+      <c r="B6" s="24"/>
+      <c r="C6" s="4">
         <v>8.36</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="B7" s="24"/>
+      <c r="C7" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="16" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
+      <c r="B8" s="24"/>
+      <c r="C8" s="5">
         <v>39.5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="9">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
+      <c r="B9" s="24"/>
+      <c r="C9" s="5">
         <v>11.5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="16" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9">
+      <c r="B10" s="24"/>
+      <c r="C10" s="5">
         <v>25.2</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="16" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="9">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7">
+      <c r="B11" s="24"/>
+      <c r="C11" s="4">
         <v>40.024999999999999</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>3</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="15"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7">
+      <c r="B12" s="24"/>
+      <c r="C12" s="4">
         <v>4.12</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="15"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7">
+      <c r="B13" s="24"/>
+      <c r="C13" s="4">
         <v>25.2</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="15"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7">
+      <c r="B14" s="24"/>
+      <c r="C14" s="4">
         <v>25.8</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="15"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7">
+      <c r="B15" s="24"/>
+      <c r="C15" s="4">
         <v>13.042999999999999</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="15"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="6">
+      <c r="B16" s="25"/>
+      <c r="C16" s="3">
         <v>40.064</v>
       </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="6">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="15"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="2">
@@ -1134,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="2">
         <v>8</v>
       </c>
@@ -1152,15 +1159,15 @@
         <v>2</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="2">
         <v>4.01</v>
       </c>
@@ -1172,15 +1179,15 @@
         <v>1</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="2">
         <v>8.24</v>
       </c>
@@ -1192,13 +1199,13 @@
         <v>2</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="18"/>
+      <c r="J20" s="13"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="2">
         <v>11.3</v>
       </c>
@@ -1210,15 +1217,15 @@
         <v>2</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2">
         <v>38.5</v>
       </c>
@@ -1230,15 +1237,15 @@
         <v>1</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="2">
         <v>25.1</v>
       </c>
@@ -1250,13 +1257,13 @@
         <v>2</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="18"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="2">
         <v>25.6</v>
       </c>
@@ -1268,15 +1275,15 @@
         <v>2</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="19" t="s">
+      <c r="J24" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="17">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="2">
         <v>13</v>
       </c>
@@ -1288,94 +1295,94 @@
         <v>1</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="18"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="17">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6">
+      <c r="B26" s="27"/>
+      <c r="C26" s="3">
         <v>40.225000000000001</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="3">
         <v>4</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="17">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6">
+      <c r="B27" s="27"/>
+      <c r="C27" s="3">
         <v>40</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>6</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="3">
         <v>6</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="17">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6">
+      <c r="B28" s="28"/>
+      <c r="C28" s="3">
         <v>5.1529999999999996</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
+      <c r="A29" s="9">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
         <v>4</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="15"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1392,28 +1399,28 @@
         <v>2</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
+      <c r="A31" s="9">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="15"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1428,30 +1435,30 @@
         <v>1</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="18"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
+      <c r="A33" s="9">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
         <v>26</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="15"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="17">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -1466,29 +1473,30 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="18"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28">
+      <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="20">
         <v>40</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="B17:B28"/>
@@ -1497,7 +1505,6 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1508,405 +1515,406 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.36328125" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.81640625" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
     <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" customWidth="1"/>
     <col min="8" max="8" width="14.90625" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="21" t="s">
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>11.5</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="24"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="7">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
-        <v>1</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="15"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7">
+      <c r="B5" s="24"/>
+      <c r="C5" s="4">
         <v>9.1</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="15"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="7">
+      <c r="B6" s="24"/>
+      <c r="C6" s="4">
         <v>8.36</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4">
         <v>3</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="15"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="B7" s="24"/>
+      <c r="C7" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="16" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="9">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
+      <c r="B8" s="24"/>
+      <c r="C8" s="5">
         <v>39.5</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
+      <c r="B9" s="24"/>
+      <c r="C9" s="5">
         <v>11.5</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="16" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="14">
+      <c r="A10" s="9">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9">
+      <c r="B10" s="24"/>
+      <c r="C10" s="5">
         <v>25.2</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="16" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7">
-        <v>40.024999999999999</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="15"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="4">
+        <v>4.12</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
+      <c r="A12" s="9">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="7">
-        <v>4.12</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="15"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="4">
+        <v>25.2</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7">
-        <v>25.2</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
+      <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="7">
-        <v>25.8</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="4">
+        <v>13.042999999999999</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7">
-        <v>13.042999999999999</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="15"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="3">
+        <v>40.064</v>
+      </c>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="9">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="6">
-        <v>40.064</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <v>0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="15"/>
+      <c r="B16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2">
-        <v>8.9</v>
+      <c r="B17" s="27"/>
+      <c r="C17" s="32">
+        <v>8</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="18"/>
+      <c r="J17" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+      <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="2">
-        <v>8</v>
+      <c r="B18" s="27"/>
+      <c r="C18" s="32">
+        <v>4.01</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="19" t="s">
-        <v>12</v>
+      <c r="J18" s="14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="2">
-        <v>4.01</v>
+        <v>8.24</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="19" t="s">
-        <v>13</v>
-      </c>
+      <c r="J19" s="13"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="A20" s="9">
         <v>18</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="2">
-        <v>8.24</v>
+      <c r="B20" s="27"/>
+      <c r="C20" s="32">
+        <v>11.3</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1916,55 +1924,55 @@
         <v>2</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="18"/>
+      <c r="J20" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="2">
-        <v>11.3</v>
+      <c r="B21" s="27"/>
+      <c r="C21" s="32">
+        <v>38.5</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="19" t="s">
-        <v>14</v>
+      <c r="J21" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
+      <c r="A22" s="9">
         <v>20</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2">
-        <v>38.5</v>
+        <v>25.1</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="19" t="s">
-        <v>15</v>
-      </c>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="17">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="2">
-        <v>25.1</v>
+      <c r="B23" s="27"/>
+      <c r="C23" s="32">
+        <v>25.6</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1974,132 +1982,138 @@
         <v>2</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="18"/>
+      <c r="J23" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="17">
+      <c r="A24" s="9">
         <v>22</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="2">
-        <v>25.6</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="19" t="s">
-        <v>18</v>
-      </c>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="17">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="2">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="J25" s="18"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="3">
+        <v>40.225000000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6"/>
+      <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="17">
+      <c r="A26" s="9">
         <v>24</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="6">
-        <v>40.225000000000001</v>
-      </c>
-      <c r="D26" s="6">
+      <c r="B26" s="27"/>
+      <c r="C26" s="3">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
+        <v>25</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="3">
+        <v>5.1529999999999996</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
+        <v>26</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="3">
+        <v>40.024999999999999</v>
+      </c>
+      <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G28" s="3">
         <v>4</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="17">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="6">
-        <v>40</v>
-      </c>
-      <c r="D27" s="6">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>6</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="17">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6">
-        <v>5.1529999999999996</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4">
         <v>4</v>
       </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="15"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="17">
+      <c r="A30" s="9">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2116,28 +2130,28 @@
         <v>2</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="18"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A31" s="14">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="15"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="17">
+      <c r="A32" s="9">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2152,30 +2166,32 @@
         <v>1</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="18"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="14">
+      <c r="A33" s="15">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
         <v>26</v>
       </c>
-      <c r="I33" s="7"/>
-      <c r="J33" s="15"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="10" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="17">
+      <c r="A34" s="9">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2190,32 +2206,32 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="18"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="28">
+      <c r="A35" s="19">
         <v>33</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="29">
+      <c r="C35" s="20">
         <v>40</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
     </row>
     <row r="36" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B28"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B28"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -2223,6 +2239,7 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>